--- a/weeklyReport.xlsx
+++ b/weeklyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\weeklyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5047B8-EBFF-4A1E-BA21-E1B66F31C94B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362B36A-2593-4273-BACC-41C81E194DAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="杨晓龙" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+  <si>
+    <t>汇总日期</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>任务名称及工作内容</t>
+  </si>
+  <si>
+    <t>计划完成人天</t>
+  </si>
+  <si>
+    <t>实际人天</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +73,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,11 +108,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -344,83 +434,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="9" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/weeklyReport.xlsx
+++ b/weeklyReport.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\weeklyReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362B36A-2593-4273-BACC-41C81E194DAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="杨晓龙" sheetId="1" r:id="rId1"/>
-    <sheet name="吴桐" sheetId="2" r:id="rId2"/>
-    <sheet name="方瑛" sheetId="3" r:id="rId3"/>
-    <sheet name="彭月" sheetId="4" r:id="rId4"/>
-    <sheet name="程北洋" sheetId="5" r:id="rId5"/>
-    <sheet name="翟松方" sheetId="6" r:id="rId6"/>
+    <sheet name="杨晓龙" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="吴桐" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="方瑛" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="彭月" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="程北洋" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="翟松方" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>汇总日期</t>
   </si>
@@ -52,37 +46,112 @@
   </si>
   <si>
     <t>实际人天</t>
+  </si>
+  <si>
+    <t>2018/06/19</t>
+  </si>
+  <si>
+    <t>123213123</t>
+  </si>
+  <si>
+    <t>12321</t>
+  </si>
+  <si>
+    <t>会展统合服务平台</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>彭月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111
+1111111
+1111111
+1111111
+</t>
+  </si>
+  <si>
+    <t>23123123</t>
+  </si>
+  <si>
+    <t>313123</t>
+  </si>
+  <si>
+    <t>12321312</t>
+  </si>
+  <si>
+    <t>12312312312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdsadasd
+asd
+as
+d
+asd
+</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222
+22222
+22222
+22222
+22222
+</t>
+  </si>
+  <si>
+    <t>3123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3333333
+33333	
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444444
+4444
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555
+555555
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,49 +194,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -433,27 +493,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="K29" pane="bottomLeft" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="9" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="9" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="9" width="11.875"/>
+    <col customWidth="1" max="7" min="7" style="9" width="21.25"/>
+    <col customWidth="1" max="9" min="9" style="9" width="9"/>
+    <col customWidth="1" max="10" min="10" style="9" width="14"/>
+    <col customWidth="1" max="12" min="12" style="9" width="16.375"/>
+    <col customWidth="1" max="14" min="14" style="9" width="20.5"/>
+    <col customWidth="1" max="16" min="16" style="9" width="19.375"/>
+    <col customWidth="1" max="17" min="17" style="9" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,32 +571,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="J14" pane="bottomLeft" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,36 +653,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="M22" pane="bottomLeft" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="9" width="8.375"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="9" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,32 +739,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A17" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,32 +820,228 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A20" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,31 +1095,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P67" sqref="P67"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A53" ySplit="1"/>
+      <selection activeCell="P67" pane="bottomLeft" sqref="P67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" s="9" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,15 +1176,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 N1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1 N1" type="list">
       <formula1>"需求,设计,开发,测试,培训,维护,项目管理,学习"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1 M1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D1 M1" type="list">
       <formula1>"小微会议系统,会展统合服务平台,国际会议管理系统,HER管理系统,GS财务管理系统"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/weeklyReport.xlsx
+++ b/weeklyReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>汇总日期</t>
   </si>
@@ -119,6 +119,55 @@
   <si>
     <t xml:space="preserve">5555
 555555
+</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1231233123
+</t>
+  </si>
+  <si>
+    <t>3123123123</t>
+  </si>
+  <si>
+    <t>213123</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21312312
+3
+12
+312
+3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1231231231231212
+3
+123
+213
+</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31212312
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3123123123123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123123
 </t>
   </si>
 </sst>
@@ -758,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A17" ySplit="1"/>
@@ -1011,6 +1060,199 @@
       </c>
       <c r="I6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/weeklyReport.xlsx
+++ b/weeklyReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="杨晓龙" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>汇总日期</t>
   </si>
@@ -51,13 +51,23 @@
     <t>2018/06/19</t>
   </si>
   <si>
+    <t>会展统合服务平台</t>
+  </si>
+  <si>
+    <t>吴桐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>123213123</t>
   </si>
   <si>
     <t>12321</t>
-  </si>
-  <si>
-    <t>会展统合服务平台</t>
   </si>
   <si>
     <t>测试</t>
@@ -93,9 +103,6 @@
 </t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">22222
 22222
 22222
@@ -176,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -194,6 +201,13 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
@@ -245,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -272,6 +286,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -639,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -700,6 +717,137 @@
       <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -723,9 +871,9 @@
   </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="M22" pane="bottomLeft" sqref="M22"/>
+      <selection activeCell="I20" pane="bottomLeft" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -753,7 +901,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -874,52 +1022,52 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -927,52 +1075,52 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -980,28 +1128,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1009,28 +1157,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1038,28 +1186,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1067,52 +1215,52 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1120,52 +1268,52 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1173,28 +1321,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1202,28 +1350,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1231,28 +1379,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1505,7 @@
   </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A53" ySplit="1"/>
       <selection activeCell="P67" pane="bottomLeft" sqref="P67"/>
     </sheetView>

--- a/weeklyReport.xlsx
+++ b/weeklyReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="杨晓龙" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>汇总日期</t>
   </si>
@@ -51,17 +51,42 @@
     <t>2018/06/19</t>
   </si>
   <si>
+    <t xml:space="preserve">2018/6/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/15
+</t>
+  </si>
+  <si>
     <t>会展统合服务平台</t>
   </si>
   <si>
-    <t>吴桐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t>杨晓龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试询比报改版，回归bug
 </t>
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>2018/6/19</t>
+  </si>
+  <si>
+    <t>2018/6/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、询比报优化整体测试
+1、询比报优化整体测试
+</t>
+  </si>
+  <si>
+    <t>2018/6/25</t>
+  </si>
+  <si>
+    <t>2018/6/29</t>
   </si>
   <si>
     <t>123213123</t>
@@ -564,11 +589,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="K29" pane="bottomLeft" sqref="K29"/>
+      <selection activeCell="E25" pane="bottomLeft" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -634,6 +659,185 @@
       </c>
       <c r="Q1" s="8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -656,11 +860,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J14" pane="bottomLeft" sqref="J14"/>
+      <selection activeCell="L13" pane="bottomLeft" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -717,137 +921,6 @@
       <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -871,9 +944,9 @@
   </sheetPr>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="I20" pane="bottomLeft" sqref="I20"/>
+      <selection activeCell="I16" pane="bottomLeft" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1022,52 +1095,52 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1075,52 +1148,52 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1128,28 +1201,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1157,28 +1230,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1186,28 +1259,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1215,52 +1288,52 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1268,52 +1341,52 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1321,28 +1394,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1350,28 +1423,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1379,28 +1452,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1506,8 +1579,8 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A53" ySplit="1"/>
-      <selection activeCell="P67" pane="bottomLeft" sqref="P67"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A41" ySplit="1"/>
+      <selection activeCell="M71" pane="bottomLeft" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
